--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462456.1509486053</v>
+        <v>393296.3414124863</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430052.9979393125</v>
+        <v>337002.2430554243</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12067207.45009627</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8042865.688973621</v>
+        <v>8574109.934192413</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>38.21115097729346</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>39.50672535627967</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,49 +1074,49 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>125.2132019625774</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>263.5506228925915</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>45.58123541261014</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>276.1565137023555</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>49.5581250103756</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.44045292477223</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.1565137023554</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>11.36599158433987</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>3.048448096658505</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>175.1311939478778</v>
+        <v>123.6064608052459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.3138620892173</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>373.5438766144463</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -1900,19 +1900,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23.35455705266811</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>268.6413070582234</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>144.2406440115529</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>116.3822385351991</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>266.6910260201687</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>151.0664686255661</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>310.1921527579653</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>18.08991703025499</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>190.253454464283</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>61.37445815126709</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.84234274505287</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>269.5134569480831</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>88.47941361700371</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>22.35153719005479</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>243.1992169715566</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>137.0779744069679</v>
       </c>
     </row>
     <row r="33">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017899</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>47.40419526769224</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3325,7 +3325,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>62.2041269330723</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>155.2114886365811</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>213.6743229269902</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>82.99642923273409</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>311.4936872159399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>404.5369713714015</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>45.2214606498644</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.1609600883624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>69.0708624534348</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>253.5111876485553</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>255.9366034337592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206.8126749707503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
         <v>19.28114311021272</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>582.7883107557723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>132.7447050367114</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.6558939327403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>354.6558939327403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>205.721484271489</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V6" t="n">
-        <v>562.4161926976942</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W6" t="n">
-        <v>562.4161926976942</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X6" t="n">
-        <v>562.4161926976942</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>354.6558939327403</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,7 +4889,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4986,19 +4986,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.0384945329112</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0384945329112</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D11" t="n">
-        <v>301.0384945329112</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>301.0384945329112</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>301.0384945329112</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>301.0384945329112</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618846</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412869</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>1058.584402877492</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>1058.584402877492</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>833.8575889684332</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>579.9844679696339</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>301.0384945329112</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>301.0384945329112</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X11" t="n">
-        <v>301.0384945329112</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0384945329112</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>839.9654209202836</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>665.5123916391566</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>516.5779819779053</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>357.3405269724498</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>210.8059689993348</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>72.15123322788097</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>165.799003153448</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>367.8501726635177</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288496</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>1008.180757940352</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>1008.180757940352</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>1008.180757940352</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>1008.180757940352</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1008.180757940352</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1008.180757940352</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1008.180757940352</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1008.180757940352</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492715</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160687</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>546.7341079359765</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="C14" t="n">
-        <v>267.7881344992538</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="D14" t="n">
-        <v>22.09252109618843</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="E14" t="n">
-        <v>22.09252109618843</v>
+        <v>218.8897574054161</v>
       </c>
       <c r="F14" t="n">
-        <v>22.09252109618843</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G14" t="n">
-        <v>22.09252109618843</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618843</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823541</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>1104.626054809422</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>1104.626054809422</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.626054809422</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.626054809422</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W14" t="n">
-        <v>1104.626054809422</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.626054809422</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y14" t="n">
-        <v>825.6800813726991</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>196.5455503773155</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>22.09252109618843</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>22.09252109618843</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618843</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09252109618843</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>22.09252109618843</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618843</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>22.09252109618843</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>268.2479876888894</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>288.9361218459457</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>562.3310704112776</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945614</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>1104.626054809422</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
-        <v>1101.546814307746</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>866.3947060760038</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>612.1573493478022</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>404.3058491422694</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>196.5455503773155</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618843</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618843</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618843</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618843</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618843</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618843</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492713</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160686</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>194.1252445754622</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>198.9927170031358</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09252109618843</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618843</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618843</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618843</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618843</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618843</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618843</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>207.4089578252748</v>
+        <v>1211.208450635683</v>
       </c>
       <c r="C17" t="n">
-        <v>207.4089578252748</v>
+        <v>842.2459336952713</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4089578252748</v>
+        <v>842.2459336952713</v>
       </c>
       <c r="E17" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982757</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y17" t="n">
-        <v>546.109828622464</v>
+        <v>1597.808290699805</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>77.53344348972618</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>77.53344348972618</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V19" t="n">
-        <v>325.2978374347316</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876365</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1192.157102157134</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C20" t="n">
-        <v>823.1945852167225</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D20" t="n">
-        <v>464.928886609972</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,10 +5752,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224075</v>
@@ -5764,7 +5764,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2551.451470804533</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2220.388583460962</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>1867.619928190848</v>
       </c>
       <c r="X20" t="n">
-        <v>1192.157102157134</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y20" t="n">
-        <v>1192.157102157134</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W22" t="n">
-        <v>2407.731920981262</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X22" t="n">
-        <v>2179.742370083244</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1646.746562480845</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C23" t="n">
-        <v>1277.784045540433</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D23" t="n">
-        <v>919.5183469336828</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>533.7300943354385</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,10 +5989,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224076</v>
@@ -6019,22 +6019,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2423.485734520778</v>
+        <v>2328.794994722488</v>
       </c>
       <c r="W23" t="n">
-        <v>2423.485734520778</v>
+        <v>1976.026339452374</v>
       </c>
       <c r="X23" t="n">
-        <v>2423.485734520778</v>
+        <v>1602.560581191294</v>
       </c>
       <c r="Y23" t="n">
-        <v>2033.346402544967</v>
+        <v>1602.560581191294</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>631.9064409481875</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C26" t="n">
-        <v>631.9064409481875</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D26" t="n">
-        <v>631.9064409481875</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E26" t="n">
-        <v>246.1181883499433</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M26" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N26" t="n">
         <v>1836.345445977174</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U26" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V26" t="n">
-        <v>2134.880026519315</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W26" t="n">
-        <v>1782.111371249201</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X26" t="n">
-        <v>1408.645612988121</v>
+        <v>2150.18672632798</v>
       </c>
       <c r="Y26" t="n">
-        <v>1018.506281012309</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X28" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y28" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.9054987607762</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>53.94298182036446</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036446</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036446</v>
+        <v>737.1647017090459</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194383</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M29" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N29" t="n">
         <v>1836.345445977174</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W29" t="n">
-        <v>1573.11042906179</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X29" t="n">
-        <v>1199.64467080071</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y29" t="n">
-        <v>809.505338824898</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6554,13 +6554,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036446</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036446</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1198.223260609829</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C32" t="n">
-        <v>1198.223260609829</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
-        <v>1198.223260609829</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E32" t="n">
-        <v>1198.223260609829</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.057514205145</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W32" t="n">
-        <v>1958.288858935031</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X32" t="n">
-        <v>1584.823100673951</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="Y32" t="n">
-        <v>1584.823100673951</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6776,46 +6776,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2567.064746875</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>2312.380258669114</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1309.714918859356</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C35" t="n">
-        <v>940.7524019189439</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>582.4867033121934</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>582.4867033121934</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533138</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6973,16 +6973,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X35" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y35" t="n">
-        <v>1309.714918859356</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.7222632714565</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694738</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X37" t="n">
-        <v>210.7222632714565</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.7222632714565</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1995.909162857192</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2128.346351498215</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1775.577696228101</v>
       </c>
       <c r="X38" t="n">
-        <v>2697.149091018222</v>
+        <v>1402.111937967022</v>
       </c>
       <c r="Y38" t="n">
-        <v>2382.509002921313</v>
+        <v>1011.97260599121</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7262,16 +7262,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7280,16 +7280,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1637.643464250441</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533138</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2651.470847937551</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2397.709062575643</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2397.709062575643</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W41" t="n">
-        <v>2397.709062575643</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X41" t="n">
-        <v>2024.243304314563</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2024.243304314563</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7490,16 +7490,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7575,43 +7575,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245972</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245972</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V43" t="n">
-        <v>259.1560728187103</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W43" t="n">
-        <v>259.1560728187103</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>259.1560728187103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
         <v>53.94298182036445</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1422.14692331494</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C44" t="n">
-        <v>1422.14692331494</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7651,10 +7651,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7681,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2572.351853615953</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="X44" t="n">
-        <v>2198.886095354873</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y44" t="n">
-        <v>1808.746763379062</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,16 +7727,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7812,43 +7812,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610024</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V46" t="n">
-        <v>184.2708856551155</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
         <v>53.94298182036445</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>327.1395372443068</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273546</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>119.7207117878867</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>125.6774978810002</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>143.9445520392428</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>387.9064735273547</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10366,10 +10366,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.66121455045</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>151.9490329357426</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>134.4973480110223</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22679,22 +22679,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>256.5108343207664</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22868,13 +22868,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>118.1383550991213</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22913,19 +22913,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22962,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,10 +23026,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6650540150651</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.31998168728992</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,10 +23156,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>91.13241872809141</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194535</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>95.44404627266917</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777942</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>61.94980209306884</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>109.8063681738556</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>47.78481791206872</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.5773279611251</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>111.4443843516483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>395.5100541573715</v>
       </c>
       <c r="G14" t="n">
-        <v>415.1619485273195</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>338.0329468943008</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852793</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>222.8879781455353</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>47.78481791206877</v>
+        <v>88.53907814477299</v>
       </c>
       <c r="T16" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.41997957426332</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>8.386493457815448</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>132.816331789127</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23937,10 +23937,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,10 +23949,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>17.88169127836755</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>106.9835234967364</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>253.3488621432699</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24186,16 +24186,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>19.83197231642231</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>255.8095771161454</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24259,22 +24259,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>17.56010571216956</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>130.5255559879574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>216.6225912774284</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>308.3566425272019</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24654,19 +24654,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>191.8673126439843</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727119</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>260.7615551004093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>202.6835682680295</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>50.78177823929096</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>163.6768287701548</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24976,16 +24976,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>249.1599642490857</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401879</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>359.4718504740192</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>324.0338117229813</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>12.03533246204674</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>72.60755131498749</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>244.7558292374008</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>74.74425144011366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829698</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.339074370309902</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>171.2268597077934</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.42369326373242</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>182.1533050548545</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>95.72978106885773</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>49.56792418188243</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>520354.2281896697</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>520354.2281896696</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>141745.4664845207</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="F2" t="n">
-        <v>141745.4664845208</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126062</v>
@@ -26334,28 +26334,28 @@
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="L2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="O2" t="n">
-        <v>231322.0880126062</v>
-      </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923566</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>375583.8824232419</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>95810.56529667103</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>42169.81622231288</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
-        <v>42169.81622231289</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="J4" t="n">
         <v>44802.6561755686</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>44802.6561755686</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>44802.65617556861</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44802.65617556861</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44802.6561755686</v>
       </c>
       <c r="M4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678014</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26496,7 +26496,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38139.58762613961</v>
+        <v>-50357.59824618007</v>
       </c>
       <c r="C6" t="n">
-        <v>42629.84390540809</v>
+        <v>30411.83328536765</v>
       </c>
       <c r="D6" t="n">
-        <v>42629.84390540812</v>
+        <v>30411.8332853676</v>
       </c>
       <c r="E6" t="n">
-        <v>43392.98961619203</v>
+        <v>-301626.6340151872</v>
       </c>
       <c r="F6" t="n">
-        <v>82021.87074542773</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="G6" t="n">
-        <v>-238295.9286496138</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="H6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="I6" t="n">
-        <v>137287.9537736281</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="J6" t="n">
-        <v>74228.01117452183</v>
+        <v>68159.59742870266</v>
       </c>
       <c r="K6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.540027809</v>
       </c>
       <c r="L6" t="n">
-        <v>137287.9537736282</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="M6" t="n">
-        <v>128530.3707784144</v>
+        <v>23246.17935375071</v>
       </c>
       <c r="N6" t="n">
-        <v>137287.9537736281</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="O6" t="n">
-        <v>41477.3884769571</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="P6" t="n">
-        <v>137287.9537736282</v>
+        <v>131219.5400278088</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912529</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26813,13 +26813,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>342.7224034979614</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>5.42776745276012</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470702</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587038</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>0.616303794162698</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520189</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727679</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779991</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192331</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833409</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164377</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263571</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623704</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174389</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170847</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894685</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>9.89953440294882</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394052</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179687</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938414</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587926</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.140788987815579</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466299</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760113</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461251</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884597</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>22.217558194707</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>24.7213143567723</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840331</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081215</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411504</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796961</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>8.84383625587037</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847509</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626972</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>0.727517133052018</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727676</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779982</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335883</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358772</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192328</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833406</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689047</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650261</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164365</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263565</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504675</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497748</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623698</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>1.89918574522732</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174383</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170838</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894673</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948808</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>9.66414560139404</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179675</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938405</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.28821036858792</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>2.83959271339006</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025626</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457194</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424828</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522134</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>204.0920904142118</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023555</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831902</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N14" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503281</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424808</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>20.89710520914779</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>276.1565137023554</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>269.1887005891755</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821095</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199195</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062263</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421935</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831893</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K17" t="n">
         <v>297.223041434342</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37630,19 +37630,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38037,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
